--- a/Experimente.xlsx
+++ b/Experimente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai intro\Pytorch\Clasificare_py_torch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1925B982-956C-4E64-992E-64CEDE6A2E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3F13F6-D3D4-4B45-BB0D-C45224F596F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8916" yWindow="1308" windowWidth="21516" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="2604" windowWidth="21516" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Big dataset" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>acc</t>
   </si>
   <si>
-    <t>img_size=128X128</t>
-  </si>
-  <si>
     <t>n1</t>
   </si>
   <si>
@@ -90,10 +87,13 @@
     <t xml:space="preserve">epoci 200 </t>
   </si>
   <si>
-    <t>64X64</t>
-  </si>
-  <si>
     <t>opt-SGD</t>
+  </si>
+  <si>
+    <t>img_size 256X256</t>
+  </si>
+  <si>
+    <t>128x128</t>
   </si>
 </sst>
 </file>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,7 +428,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -446,28 +446,28 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -475,25 +475,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="D2">
         <v>0.83</v>
       </c>
       <c r="E2">
-        <v>0.80600000000000005</v>
+        <v>0.98</v>
       </c>
       <c r="F2">
-        <v>0.86</v>
+        <v>0.81</v>
       </c>
       <c r="G2">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2">
         <v>16</v>
@@ -514,7 +514,7 @@
         <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -522,22 +522,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="D3">
-        <v>0.75</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="E3">
-        <v>0.64</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F3">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="G3">
-        <v>0.69</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -545,22 +545,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>0.73</v>
+        <v>0.89</v>
       </c>
       <c r="D4">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="E4">
-        <v>0.60699999999999998</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F4">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="G4">
-        <v>0.63</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -568,22 +568,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="D5">
-        <v>0.80800000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0.77100000000000002</v>
+        <v>0.98</v>
       </c>
       <c r="F5">
+        <v>0.83</v>
+      </c>
+      <c r="G5">
         <v>0.84</v>
-      </c>
-      <c r="G5">
-        <v>0.73</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -591,22 +591,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="D6">
-        <v>0.68</v>
+        <v>0.87</v>
       </c>
       <c r="E6">
-        <v>0.57999999999999996</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="F6">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="G6">
-        <v>0.61</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -614,22 +614,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>0.78</v>
+        <v>0.87</v>
       </c>
       <c r="D7">
+        <v>0.9</v>
+      </c>
+      <c r="E7">
+        <v>0.98</v>
+      </c>
+      <c r="F7">
         <v>0.83</v>
       </c>
-      <c r="E7">
-        <v>0.82</v>
-      </c>
-      <c r="F7">
-        <v>0.85</v>
-      </c>
       <c r="G7">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>

--- a/Experimente.xlsx
+++ b/Experimente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai intro\Pytorch\Clasificare_py_torch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3F13F6-D3D4-4B45-BB0D-C45224F596F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEA6126-FED7-4A00-AAAE-F0B9B0F022F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="2604" windowWidth="21516" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="1776" windowWidth="21516" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Big dataset" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t xml:space="preserve">Experiment </t>
   </si>
@@ -36,9 +36,6 @@
     <t>F1</t>
   </si>
   <si>
-    <t>FPR</t>
-  </si>
-  <si>
     <t>PPV</t>
   </si>
   <si>
@@ -94,6 +91,15 @@
   </si>
   <si>
     <t>128x128</t>
+  </si>
+  <si>
+    <t>nimic</t>
+  </si>
+  <si>
+    <t>indetic cu 7</t>
+  </si>
+  <si>
+    <t>Recall</t>
   </si>
 </sst>
 </file>
@@ -411,16 +417,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.44140625" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -428,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -437,37 +444,37 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -475,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>0.9</v>
@@ -493,7 +500,7 @@
         <v>0.82</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2">
         <v>16</v>
@@ -514,7 +521,7 @@
         <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -522,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>0.92</v>
@@ -545,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0.89</v>
@@ -568,7 +575,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>0.86</v>
@@ -591,7 +598,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>0.8</v>
@@ -614,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>0.87</v>
@@ -630,6 +637,108 @@
       </c>
       <c r="G7">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>0.84</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.73</v>
+      </c>
+      <c r="G8">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>0.83</v>
+      </c>
+      <c r="D11">
+        <v>0.16</v>
+      </c>
+      <c r="E11">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.89</v>
+      </c>
+      <c r="G11">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>0.9</v>
+      </c>
+      <c r="D13">
+        <v>0.68</v>
+      </c>
+      <c r="E13">
+        <v>0.53</v>
+      </c>
+      <c r="F13">
+        <v>0.94</v>
+      </c>
+      <c r="G13">
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
